--- a/public/uploads/Book12.xlsx
+++ b/public/uploads/Book12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AssessmentPlatform_IKIGAI\assesment-platform\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823599D4-62B2-4338-A8B3-F6AC385AF3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA44189-BB95-463D-9B42-109750AE3D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,30 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
-    <t>A.imageUrl</t>
-  </si>
-  <si>
-    <t>A.text</t>
-  </si>
-  <si>
-    <t>B.imageUrl</t>
-  </si>
-  <si>
-    <t>B.text</t>
-  </si>
-  <si>
-    <t>C.imageUrl</t>
-  </si>
-  <si>
-    <t>C.text</t>
-  </si>
-  <si>
-    <t>D.imageUrl</t>
-  </si>
-  <si>
-    <t>D.text</t>
-  </si>
-  <si>
     <t>answer</t>
   </si>
   <si>
@@ -113,6 +89,30 @@
   </si>
   <si>
     <t xml:space="preserve"> are you?</t>
+  </si>
+  <si>
+    <t>AimageUrl</t>
+  </si>
+  <si>
+    <t>Atext</t>
+  </si>
+  <si>
+    <t>BimageUrl</t>
+  </si>
+  <si>
+    <t>CimageUrl</t>
+  </si>
+  <si>
+    <t>Btext</t>
+  </si>
+  <si>
+    <t>Ctext</t>
+  </si>
+  <si>
+    <t>DimageUrl</t>
+  </si>
+  <si>
+    <t>Dtext</t>
   </si>
 </sst>
 </file>
@@ -956,120 +956,120 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
